--- a/Service.Catalog/wwwroot/seed/05_CAT_METODOS.xlsx
+++ b/Service.Catalog/wwwroot/seed/05_CAT_METODOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-71\source\repos\LaboratorioRamos\API\Service.Catalog\wwwroot\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C563EE-DA3B-424A-AFDE-EEC118180CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DAAA4C-22F1-4054-80C3-F44A9F69AA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="293">
   <si>
     <t>FOTOMETRIA</t>
   </si>
@@ -799,6 +799,117 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>CITFLOW</t>
+  </si>
+  <si>
+    <t>Citometría de flujo FlowDSA</t>
+  </si>
+  <si>
+    <t>_PCR_T</t>
+  </si>
+  <si>
+    <t>CROMAT</t>
+  </si>
+  <si>
+    <t>CROES</t>
+  </si>
+  <si>
+    <t>Cromatografía. Espectrometría de masas.</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>ImmunoCAP</t>
+  </si>
+  <si>
+    <t>EZA</t>
+  </si>
+  <si>
+    <t>Ensayo enzimático</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Veneno de vibora de Russell</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>Hibridación in situ fluorescente .</t>
+  </si>
+  <si>
+    <t>MCS</t>
+  </si>
+  <si>
+    <t>Espectrometría de correlación molecular (MCS) de carbono 13</t>
+  </si>
+  <si>
+    <t>ISOELE</t>
+  </si>
+  <si>
+    <t>ELI</t>
+  </si>
+  <si>
+    <t>PCRHMA</t>
+  </si>
+  <si>
+    <t>PCRLCD</t>
+  </si>
+  <si>
+    <t>PCLC</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>FOTCO</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>PCRTRM</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>GENEX</t>
+  </si>
+  <si>
+    <t>ARMS</t>
+  </si>
+  <si>
+    <t>IFI</t>
+  </si>
+  <si>
+    <t>IEE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>INMTU</t>
+  </si>
+  <si>
+    <t>QLM-UPLC/M</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>HPLC2</t>
   </si>
 </sst>
 </file>
@@ -1722,18 +1833,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,16 +3384,400 @@
       <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D129" s="9"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D161" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
